--- a/ontology/ontology_prototype/Excel/Mapping.xlsx
+++ b/ontology/ontology_prototype/Excel/Mapping.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Master\Master Thesis\Repository\devotigdl\ontology\ontology_prototype\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{758A24CF-991B-4C36-890A-266BEB120C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7026C3CD-F265-4F9B-8ADD-BA95DD8EF157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="21000" xr2:uid="{8AB60291-E955-4BBA-8F67-16DD8F91C745}"/>
+    <workbookView xWindow="17190" yWindow="0" windowWidth="17220" windowHeight="21000" xr2:uid="{8AB60291-E955-4BBA-8F67-16DD8F91C745}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapping" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,109 +36,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Implementation-level</t>
-  </si>
-  <si>
-    <t>Top-level</t>
-  </si>
-  <si>
-    <t>organization:Architecture</t>
-  </si>
-  <si>
-    <t>ArchitectureDesignDomain</t>
-  </si>
-  <si>
-    <t>organization:Design</t>
-  </si>
-  <si>
-    <t>igso-arc:DesignDomain</t>
-  </si>
-  <si>
-    <t>organization:Service</t>
-  </si>
-  <si>
-    <t>igso-svc:IGServiceDomain</t>
-  </si>
-  <si>
-    <t>information:Data</t>
-  </si>
-  <si>
-    <t>igso-data:Data</t>
-  </si>
-  <si>
-    <t>organization:Enterprise</t>
-  </si>
-  <si>
-    <t>igso-org:Enterprise</t>
-  </si>
-  <si>
-    <t>organization:Maturity</t>
-  </si>
-  <si>
-    <t>igso-org:MaturityIndex</t>
-  </si>
-  <si>
-    <t>organization:Framework</t>
-  </si>
-  <si>
-    <t>igso-org:Association</t>
-  </si>
-  <si>
-    <t>jurisdiction:Country</t>
-  </si>
-  <si>
-    <t>igso-jur:Country</t>
-  </si>
-  <si>
-    <t>igso-jur:GDPR_Chapter</t>
-  </si>
-  <si>
-    <t>jurisdiction:GDPR_Chapter</t>
-  </si>
-  <si>
-    <t>lifecycle:Process</t>
-  </si>
-  <si>
-    <t>organization:ISO</t>
-  </si>
-  <si>
-    <t>igso-stds:ISOStandards</t>
-  </si>
-  <si>
-    <t>organization:Process</t>
-  </si>
-  <si>
-    <t>igso-org:Process</t>
-  </si>
-  <si>
-    <t>organization:OrganizationUnit+</t>
-  </si>
-  <si>
-    <t>igso-org:OrganizationalUnit+</t>
-  </si>
-  <si>
-    <t>organization:Role+</t>
-  </si>
-  <si>
-    <t>igso-org:Role+</t>
-  </si>
-  <si>
-    <t>igso-arc:Method/igso-req:FunctionalRequirement</t>
-  </si>
-  <si>
-    <t>information:Record</t>
-  </si>
-  <si>
-    <t>igso-data:Record</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
+  <si>
+    <t>IGONTO</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>igso-arc</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;--   </t>
+  </si>
+  <si>
+    <t>subClassOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DataQuality</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>organization:</t>
+  </si>
+  <si>
+    <t>lifecycle:</t>
+  </si>
+  <si>
+    <t>Record_Lifecycle</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>equivalent to</t>
+  </si>
+  <si>
+    <t>information:</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>igso-data</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>AssetType</t>
+  </si>
+  <si>
+    <t>MetadataType</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Capability</t>
+  </si>
+  <si>
+    <t>igso-ddy</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>ServiceQuality</t>
+  </si>
+  <si>
+    <t>igso-org</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>OrganizationUnit</t>
+  </si>
+  <si>
+    <t>equivalentTo</t>
+  </si>
+  <si>
+    <t>IG_Program</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>igso-ass</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>MaturityLevel</t>
+  </si>
+  <si>
+    <t>jurisdiction:</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>igso-jur</t>
+  </si>
+  <si>
+    <t>Regulation</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>igso-stds</t>
+  </si>
+  <si>
+    <t>ISOStandards</t>
+  </si>
+  <si>
+    <t>InformationLifecycle</t>
+  </si>
+  <si>
+    <t>Too much DL?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,14 +204,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +242,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,15 +324,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -513,266 +716,748 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A24672-1AFB-4B37-B91D-F00ACC4DB9C8}">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D64216-DD31-4827-9DAB-BBB27C2DBAD0}">
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="27" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="47" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="E13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="F21" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D59" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>